--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_19-04.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_19-04.xlsx
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>REPAION-N GEL 50 GM</t>
+  </si>
+  <si>
+    <t>ROYAL REGIME HERBAL TEA 2 GM*25 TEA BAGS</t>
   </si>
   <si>
     <t>SAFE TOP SYRUP</t>
@@ -2691,13 +2694,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
@@ -2717,13 +2720,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
@@ -2743,13 +2746,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
@@ -2769,13 +2772,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
@@ -2795,13 +2798,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
@@ -2821,17 +2824,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2839,7 +2842,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2847,17 +2850,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>134.40000000000001</v>
+        <v>26</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>4</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2873,17 +2876,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>60</v>
+        <v>134.40000000000001</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2899,13 +2902,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
@@ -2925,13 +2928,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
@@ -2951,13 +2954,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>245</v>
+        <v>83</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
@@ -2969,7 +2972,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2977,13 +2980,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>23</v>
+        <v>245</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
@@ -3003,7 +3006,7 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
@@ -3013,7 +3016,7 @@
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3029,17 +3032,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3055,17 +3058,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>74.689999999999998</v>
+        <v>168</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
-        <v>0.20000000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3081,17 +3084,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>128</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3107,17 +3110,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3133,17 +3136,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>24.960000000000001</v>
+        <v>18</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3159,17 +3162,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>17</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3185,17 +3188,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3211,13 +3214,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>102.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
@@ -3237,17 +3240,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>168</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3269,11 +3272,11 @@
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3289,13 +3292,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
@@ -3315,17 +3318,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>78.400000000000006</v>
+        <v>30</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3333,7 +3336,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3341,17 +3344,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>20</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3359,7 +3362,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3367,13 +3370,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
@@ -3393,17 +3396,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3411,7 +3414,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3419,17 +3422,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3445,17 +3448,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3463,7 +3466,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3471,17 +3474,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3503,11 +3506,11 @@
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3523,17 +3526,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3541,7 +3544,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3549,17 +3552,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3575,13 +3578,13 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
@@ -3601,13 +3604,13 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
@@ -3619,7 +3622,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3627,13 +3630,13 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
@@ -3645,7 +3648,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3653,51 +3656,77 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="106" ht="25.5" customHeight="1">
-      <c r="K106" s="11">
-        <v>6096.9399999999996</v>
-      </c>
-      <c r="L106" s="11"/>
-      <c r="M106" s="11"/>
-      <c r="N106" s="11"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="12">
+    <row r="106" ht="24.75" customHeight="1">
+      <c r="A106" s="6">
+        <v>103</v>
+      </c>
+      <c t="s" r="B106" s="7">
         <v>141</v>
       </c>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c t="s" r="F107" s="13">
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c t="s" r="H106" s="8">
+        <v>45</v>
+      </c>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="9">
+        <v>30</v>
+      </c>
+      <c r="M106" s="9"/>
+      <c r="N106" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" ht="26.25" customHeight="1">
+      <c r="K107" s="11">
+        <v>6121.9399999999996</v>
+      </c>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="12">
         <v>142</v>
       </c>
-      <c r="G107" s="13"/>
-      <c r="H107" s="14"/>
-      <c t="s" r="I107" s="15">
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c t="s" r="F108" s="13">
         <v>143</v>
       </c>
-      <c r="J107" s="15"/>
-      <c r="K107" s="15"/>
-      <c r="L107" s="15"/>
-      <c r="M107" s="15"/>
-      <c r="N107" s="15"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="14"/>
+      <c t="s" r="I108" s="15">
+        <v>144</v>
+      </c>
+      <c r="J108" s="15"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="320">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4011,10 +4040,13 @@
     <mergeCell ref="B105:G105"/>
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
-    <mergeCell ref="K106:N106"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="I107:N107"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="K107:N107"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="I108:N108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
